--- a/server/excel/monthMbys(目标预算)_Proto.xlsx
+++ b/server/excel/monthMbys(目标预算)_Proto.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="14070" firstSheet="4" activeTab="8"/>
+    <workbookView windowWidth="28695" windowHeight="14070"/>
   </bookViews>
   <sheets>
     <sheet name="CbhsMonthJjcbYs(间接成本月预算)" sheetId="5" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188">
   <si>
     <t>属性名</t>
   </si>
@@ -267,55 +267,67 @@
     <t>xlf_clf</t>
   </si>
   <si>
-    <t>必填|修理费-差旅费</t>
+    <t>必填|其他费用-差旅费</t>
   </si>
   <si>
     <t>xlf_cailiaofei</t>
   </si>
   <si>
-    <t>必填|修理费-材料费</t>
+    <t>必填|其他费用-材料费</t>
   </si>
   <si>
     <t>xlf_flf</t>
   </si>
   <si>
-    <t>必填|修理费-福利费</t>
+    <t>必填|其他费用-福利费</t>
   </si>
   <si>
     <t>xlf_ywjf</t>
   </si>
   <si>
-    <t>必填|修理费-业务经费</t>
+    <t>必填|其他费用-业务经费</t>
   </si>
   <si>
     <t>xlf_sdf</t>
   </si>
   <si>
-    <t>必填|修理费-水电费</t>
+    <t>必填|其他费用-水电费</t>
   </si>
   <si>
     <t>xlf_scf</t>
   </si>
   <si>
-    <t>必填|修理费-审车费</t>
+    <t>必填|其他费用-审车费</t>
   </si>
   <si>
     <t>xlf_kyjf</t>
   </si>
   <si>
-    <t>必填|修理费-科研经费</t>
+    <t>必填|其他费用-科研经费</t>
   </si>
   <si>
     <t>xlf_cljbxf</t>
   </si>
   <si>
-    <t>必填|修理费-车辆及保险费</t>
+    <t>必填|其他费用-车辆及保险费</t>
+  </si>
+  <si>
+    <t>xlf_bhfy</t>
+  </si>
+  <si>
+    <t>必填|其他费用-保函费用</t>
+  </si>
+  <si>
+    <t>xlf_gzzrx</t>
+  </si>
+  <si>
+    <t>必填|其他费用-雇主责任险</t>
   </si>
   <si>
     <t>xlf_qt</t>
   </si>
   <si>
-    <t>必填|修理费-其他</t>
+    <t>必填|其他费用-其他</t>
   </si>
   <si>
     <t>aqfy_ygsz</t>
@@ -623,13 +635,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -653,44 +658,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -709,9 +676,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -732,14 +699,58 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -754,14 +765,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -788,25 +800,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -836,79 +848,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -950,6 +902,30 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -969,6 +945,42 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1064,17 +1076,6 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
@@ -1105,6 +1106,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1113,10 +1125,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1125,133 +1137,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="15" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1624,10 +1636,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:M48"/>
+  <dimension ref="A1:M50"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="$A4:$XFD5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A42" sqref="$A42:$XFD42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.89166666666667" defaultRowHeight="13.5"/>
@@ -2580,65 +2592,107 @@
       <c r="L44" s="2"/>
       <c r="M44" s="2"/>
     </row>
-    <row r="45" s="2" customFormat="1" ht="11" customHeight="1" spans="1:4">
+    <row r="45" s="1" customFormat="1" ht="11" customHeight="1" spans="1:13">
       <c r="A45" s="2" t="s">
         <v>104</v>
       </c>
       <c r="B45" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="C45" s="2" t="s">
+      <c r="C45" s="2"/>
+      <c r="D45" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E45" s="2"/>
+      <c r="F45" s="2"/>
+      <c r="G45" s="2"/>
+      <c r="H45" s="2"/>
+      <c r="I45" s="2"/>
+      <c r="J45" s="2"/>
+      <c r="K45" s="2"/>
+      <c r="L45" s="2"/>
+      <c r="M45" s="2"/>
+    </row>
+    <row r="46" s="1" customFormat="1" ht="11" customHeight="1" spans="1:13">
+      <c r="A46" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="D45" s="2" t="s">
+      <c r="B46" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C46" s="2"/>
+      <c r="D46" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E46" s="2"/>
+      <c r="F46" s="2"/>
+      <c r="G46" s="2"/>
+      <c r="H46" s="2"/>
+      <c r="I46" s="2"/>
+      <c r="J46" s="2"/>
+      <c r="K46" s="2"/>
+      <c r="L46" s="2"/>
+      <c r="M46" s="2"/>
+    </row>
+    <row r="47" s="2" customFormat="1" ht="11" customHeight="1" spans="1:4">
+      <c r="A47" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="D47" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="46" s="2" customFormat="1" ht="11" customHeight="1" spans="1:11">
-      <c r="A46" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="B46" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="C46" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="D46" s="2" t="s">
+    <row r="48" s="2" customFormat="1" ht="11" customHeight="1" spans="1:11">
+      <c r="A48" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="D48" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="K46" s="2">
+      <c r="K48" s="2">
         <v>50</v>
       </c>
     </row>
-    <row r="47" s="2" customFormat="1" ht="11" customHeight="1" spans="1:11">
-      <c r="A47" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="B47" s="2" t="s">
+    <row r="49" s="2" customFormat="1" ht="11" customHeight="1" spans="1:11">
+      <c r="A49" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C49" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="C47" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="D47" s="2" t="s">
+      <c r="D49" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="K47" s="2">
+      <c r="K49" s="2">
         <v>50</v>
       </c>
     </row>
-    <row r="48" s="2" customFormat="1" ht="11" customHeight="1" spans="1:4">
-      <c r="A48" s="8" t="s">
-        <v>111</v>
-      </c>
-      <c r="B48" s="2" t="s">
+    <row r="50" s="2" customFormat="1" ht="11" customHeight="1" spans="1:4">
+      <c r="A50" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C50" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="C48" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="D48" s="2" t="s">
+      <c r="D50" s="2" t="s">
         <v>28</v>
       </c>
     </row>
@@ -2710,7 +2764,7 @@
         <v>13</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2" t="s">
@@ -2862,10 +2916,10 @@
     </row>
     <row r="9" ht="11" customHeight="1" spans="1:13">
       <c r="A9" s="2" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" s="2" t="s">
@@ -2883,10 +2937,10 @@
     </row>
     <row r="10" ht="11" customHeight="1" spans="1:13">
       <c r="A10" s="2" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" s="2" t="s">
@@ -2904,10 +2958,10 @@
     </row>
     <row r="11" ht="11" customHeight="1" spans="1:13">
       <c r="A11" s="2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" s="2" t="s">
@@ -2925,10 +2979,10 @@
     </row>
     <row r="12" ht="11" customHeight="1" spans="1:13">
       <c r="A12" s="2" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" s="2" t="s">
@@ -2946,10 +3000,10 @@
     </row>
     <row r="13" ht="11" customHeight="1" spans="1:13">
       <c r="A13" s="2" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" s="2" t="s">
@@ -2967,13 +3021,13 @@
     </row>
     <row r="14" s="2" customFormat="1" ht="11" customHeight="1" spans="1:4">
       <c r="A14" s="2" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>15</v>
@@ -2981,13 +3035,13 @@
     </row>
     <row r="15" s="2" customFormat="1" ht="11" customHeight="1" spans="1:11">
       <c r="A15" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>23</v>
@@ -2998,13 +3052,13 @@
     </row>
     <row r="16" s="2" customFormat="1" ht="11" customHeight="1" spans="1:11">
       <c r="A16" s="2" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="B16" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C16" s="2" t="s">
         <v>110</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>106</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>23</v>
@@ -3015,13 +3069,13 @@
     </row>
     <row r="17" s="2" customFormat="1" ht="11" customHeight="1" spans="1:4">
       <c r="A17" s="8" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="B17" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C17" s="2" t="s">
         <v>110</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>106</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>28</v>
@@ -3095,7 +3149,7 @@
         <v>13</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2" t="s">
@@ -3138,10 +3192,10 @@
     </row>
     <row r="4" ht="11" customHeight="1" spans="1:13">
       <c r="A4" s="6" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="C4" s="7"/>
       <c r="D4" s="7" t="s">
@@ -3159,10 +3213,10 @@
     </row>
     <row r="5" ht="11" customHeight="1" spans="1:13">
       <c r="A5" s="6" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="C5" s="7"/>
       <c r="D5" s="2" t="s">
@@ -3270,10 +3324,10 @@
     </row>
     <row r="10" ht="11" customHeight="1" spans="1:13">
       <c r="A10" s="2" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" s="2" t="s">
@@ -3293,10 +3347,10 @@
     </row>
     <row r="11" ht="11" customHeight="1" spans="1:13">
       <c r="A11" s="2" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" s="2" t="s">
@@ -3316,10 +3370,10 @@
     </row>
     <row r="12" ht="11" customHeight="1" spans="1:13">
       <c r="A12" s="2" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" s="2" t="s">
@@ -3337,10 +3391,10 @@
     </row>
     <row r="13" ht="11" customHeight="1" spans="1:13">
       <c r="A13" s="2" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" s="2" t="s">
@@ -3360,10 +3414,10 @@
     </row>
     <row r="14" ht="11" customHeight="1" spans="1:13">
       <c r="A14" s="2" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" s="2" t="s">
@@ -3383,10 +3437,10 @@
     </row>
     <row r="15" ht="11" customHeight="1" spans="1:13">
       <c r="A15" s="2" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" s="2" t="s">
@@ -3404,10 +3458,10 @@
     </row>
     <row r="16" ht="11" customHeight="1" spans="1:13">
       <c r="A16" s="2" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" s="2" t="s">
@@ -3428,7 +3482,7 @@
         <v>29</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" s="2" t="s">
@@ -3446,13 +3500,13 @@
     </row>
     <row r="18" s="2" customFormat="1" ht="11" customHeight="1" spans="1:4">
       <c r="A18" s="2" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>15</v>
@@ -3460,13 +3514,13 @@
     </row>
     <row r="19" s="2" customFormat="1" ht="11" customHeight="1" spans="1:11">
       <c r="A19" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>23</v>
@@ -3477,13 +3531,13 @@
     </row>
     <row r="20" s="2" customFormat="1" ht="11" customHeight="1" spans="1:11">
       <c r="A20" s="2" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="B20" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C20" s="2" t="s">
         <v>110</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>106</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>23</v>
@@ -3494,13 +3548,13 @@
     </row>
     <row r="21" s="2" customFormat="1" ht="11" customHeight="1" spans="1:4">
       <c r="A21" s="8" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="B21" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C21" s="2" t="s">
         <v>110</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>106</v>
       </c>
       <c r="D21" s="2" t="s">
         <v>28</v>
@@ -3574,7 +3628,7 @@
         <v>13</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2" t="s">
@@ -3705,10 +3759,10 @@
     </row>
     <row r="8" ht="11" customHeight="1" spans="1:13">
       <c r="A8" s="2" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" s="2" t="s">
@@ -3726,10 +3780,10 @@
     </row>
     <row r="9" ht="11" customHeight="1" spans="1:13">
       <c r="A9" s="2" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" s="2" t="s">
@@ -3750,7 +3804,7 @@
         <v>29</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" s="2" t="s">
@@ -3768,10 +3822,10 @@
     </row>
     <row r="11" ht="11" customHeight="1" spans="1:13">
       <c r="A11" s="2" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" s="2" t="s">
@@ -3791,13 +3845,13 @@
     </row>
     <row r="12" s="2" customFormat="1" ht="11" customHeight="1" spans="1:4">
       <c r="A12" s="2" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>15</v>
@@ -3805,13 +3859,13 @@
     </row>
     <row r="13" s="2" customFormat="1" ht="11" customHeight="1" spans="1:11">
       <c r="A13" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>23</v>
@@ -3822,13 +3876,13 @@
     </row>
     <row r="14" s="2" customFormat="1" ht="11" customHeight="1" spans="1:11">
       <c r="A14" s="2" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="B14" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C14" s="2" t="s">
         <v>110</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>106</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>23</v>
@@ -3839,13 +3893,13 @@
     </row>
     <row r="15" s="2" customFormat="1" ht="11" customHeight="1" spans="1:4">
       <c r="A15" s="8" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="B15" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C15" s="2" t="s">
         <v>110</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>106</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>28</v>
@@ -3919,7 +3973,7 @@
         <v>13</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2" t="s">
@@ -4050,10 +4104,10 @@
     </row>
     <row r="8" customHeight="1" spans="1:13">
       <c r="A8" s="2" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" s="2" t="s">
@@ -4071,10 +4125,10 @@
     </row>
     <row r="9" customHeight="1" spans="1:13">
       <c r="A9" s="2" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" s="2" t="s">
@@ -4092,10 +4146,10 @@
     </row>
     <row r="10" customHeight="1" spans="1:13">
       <c r="A10" s="2" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" s="2" t="s">
@@ -4113,10 +4167,10 @@
     </row>
     <row r="11" customHeight="1" spans="1:13">
       <c r="A11" s="2" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" s="2" t="s">
@@ -4137,7 +4191,7 @@
         <v>29</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" s="2" t="s">
@@ -4155,13 +4209,13 @@
     </row>
     <row r="13" s="2" customFormat="1" ht="11" customHeight="1" spans="1:4">
       <c r="A13" s="2" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>15</v>
@@ -4169,13 +4223,13 @@
     </row>
     <row r="14" s="2" customFormat="1" ht="11" customHeight="1" spans="1:11">
       <c r="A14" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>23</v>
@@ -4186,13 +4240,13 @@
     </row>
     <row r="15" s="2" customFormat="1" ht="11" customHeight="1" spans="1:11">
       <c r="A15" s="2" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="B15" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C15" s="2" t="s">
         <v>110</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>106</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>23</v>
@@ -4203,13 +4257,13 @@
     </row>
     <row r="16" s="2" customFormat="1" ht="11" customHeight="1" spans="1:4">
       <c r="A16" s="8" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="B16" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C16" s="2" t="s">
         <v>110</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>106</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>28</v>
@@ -4283,7 +4337,7 @@
         <v>13</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2" t="s">
@@ -4417,7 +4471,7 @@
         <v>29</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" s="2" t="s">
@@ -4435,10 +4489,10 @@
     </row>
     <row r="9" customHeight="1" spans="1:13">
       <c r="A9" s="2" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" s="2" t="s">
@@ -4458,10 +4512,10 @@
     </row>
     <row r="10" customHeight="1" spans="1:13">
       <c r="A10" s="2" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" s="2" t="s">
@@ -4481,13 +4535,13 @@
     </row>
     <row r="11" s="2" customFormat="1" ht="11" customHeight="1" spans="1:4">
       <c r="A11" s="2" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>15</v>
@@ -4495,13 +4549,13 @@
     </row>
     <row r="12" s="2" customFormat="1" ht="11" customHeight="1" spans="1:11">
       <c r="A12" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>23</v>
@@ -4512,13 +4566,13 @@
     </row>
     <row r="13" s="2" customFormat="1" ht="11" customHeight="1" spans="1:11">
       <c r="A13" s="2" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="B13" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C13" s="2" t="s">
         <v>110</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>106</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>23</v>
@@ -4529,13 +4583,13 @@
     </row>
     <row r="14" s="2" customFormat="1" ht="11" customHeight="1" spans="1:4">
       <c r="A14" s="8" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="B14" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C14" s="2" t="s">
         <v>110</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>106</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>28</v>
@@ -4607,7 +4661,7 @@
         <v>13</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2" t="s">
@@ -4629,10 +4683,10 @@
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="6" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="C3" s="7"/>
       <c r="D3" s="7" t="s">
@@ -4650,10 +4704,10 @@
     </row>
     <row r="4" spans="1:13">
       <c r="A4" s="6" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="C4" s="7"/>
       <c r="D4" s="2" t="s">
@@ -4785,7 +4839,7 @@
         <v>29</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" s="2" t="s">
@@ -4803,10 +4857,10 @@
     </row>
     <row r="11" customHeight="1" spans="1:13">
       <c r="A11" s="2" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" s="2" t="s">
@@ -4824,10 +4878,10 @@
     </row>
     <row r="12" customHeight="1" spans="1:13">
       <c r="A12" s="2" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" s="2" t="s">
@@ -4847,10 +4901,10 @@
     </row>
     <row r="13" customFormat="1" customHeight="1" spans="1:13">
       <c r="A13" s="2" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" s="2" t="s">
@@ -4868,10 +4922,10 @@
     </row>
     <row r="14" customFormat="1" customHeight="1" spans="1:13">
       <c r="A14" s="2" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" s="2" t="s">
@@ -4891,10 +4945,10 @@
     </row>
     <row r="15" customHeight="1" spans="1:13">
       <c r="A15" s="2" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" s="2" t="s">
@@ -4914,10 +4968,10 @@
     </row>
     <row r="16" customHeight="1" spans="1:13">
       <c r="A16" s="2" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" s="2" t="s">
@@ -4937,10 +4991,10 @@
     </row>
     <row r="17" customHeight="1" spans="1:13">
       <c r="A17" s="2" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" s="2" t="s">
@@ -4960,10 +5014,10 @@
     </row>
     <row r="18" customHeight="1" spans="1:13">
       <c r="A18" s="2" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" s="2" t="s">
@@ -4981,10 +5035,10 @@
     </row>
     <row r="19" customHeight="1" spans="1:13">
       <c r="A19" s="2" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" s="2" t="s">
@@ -5002,10 +5056,10 @@
     </row>
     <row r="20" s="2" customFormat="1" ht="11.25" spans="1:11">
       <c r="A20" s="2" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>23</v>
@@ -5016,13 +5070,13 @@
     </row>
     <row r="21" s="2" customFormat="1" ht="11" customHeight="1" spans="1:4">
       <c r="A21" s="2" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="D21" s="2" t="s">
         <v>15</v>
@@ -5030,13 +5084,13 @@
     </row>
     <row r="22" s="2" customFormat="1" ht="11" customHeight="1" spans="1:11">
       <c r="A22" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="D22" s="2" t="s">
         <v>23</v>
@@ -5047,13 +5101,13 @@
     </row>
     <row r="23" s="2" customFormat="1" ht="11" customHeight="1" spans="1:11">
       <c r="A23" s="2" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="B23" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C23" s="2" t="s">
         <v>110</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>106</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>23</v>
@@ -5064,13 +5118,13 @@
     </row>
     <row r="24" s="2" customFormat="1" ht="11" customHeight="1" spans="1:4">
       <c r="A24" s="8" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="B24" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C24" s="2" t="s">
         <v>110</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>106</v>
       </c>
       <c r="D24" s="2" t="s">
         <v>28</v>
@@ -5144,7 +5198,7 @@
         <v>13</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2" t="s">
@@ -5166,10 +5220,10 @@
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="6" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="C3" s="7"/>
       <c r="D3" s="7" t="s">
@@ -5187,10 +5241,10 @@
     </row>
     <row r="4" spans="1:13">
       <c r="A4" s="6" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="C4" s="7"/>
       <c r="D4" s="2" t="s">
@@ -5210,10 +5264,10 @@
     </row>
     <row r="5" spans="1:13">
       <c r="A5" s="6" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="C5" s="7"/>
       <c r="D5" s="7" t="s">
@@ -5231,10 +5285,10 @@
     </row>
     <row r="6" spans="1:13">
       <c r="A6" s="6" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="C6" s="7"/>
       <c r="D6" s="2" t="s">
@@ -5363,10 +5417,10 @@
     </row>
     <row r="12" customFormat="1" ht="13.5" spans="1:13">
       <c r="A12" s="2" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" s="2" t="s">
@@ -5386,10 +5440,10 @@
     </row>
     <row r="13" customFormat="1" ht="13.5" spans="1:13">
       <c r="A13" s="2" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" s="2" t="s">
@@ -5409,10 +5463,10 @@
     </row>
     <row r="14" spans="1:13">
       <c r="A14" s="2" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" s="2" t="s">
@@ -5430,10 +5484,10 @@
     </row>
     <row r="15" spans="1:13">
       <c r="A15" s="2" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" s="2" t="s">
@@ -5453,10 +5507,10 @@
     </row>
     <row r="16" spans="1:13">
       <c r="A16" s="2" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" s="2" t="s">
@@ -5476,10 +5530,10 @@
     </row>
     <row r="17" spans="1:13">
       <c r="A17" s="2" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" s="2" t="s">
@@ -5497,10 +5551,10 @@
     </row>
     <row r="18" spans="1:13">
       <c r="A18" s="2" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" s="2" t="s">
@@ -5521,7 +5575,7 @@
         <v>29</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" s="2" t="s">
@@ -5539,13 +5593,13 @@
     </row>
     <row r="20" s="2" customFormat="1" ht="11" customHeight="1" spans="1:4">
       <c r="A20" s="2" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>15</v>
@@ -5553,13 +5607,13 @@
     </row>
     <row r="21" s="2" customFormat="1" ht="11" customHeight="1" spans="1:11">
       <c r="A21" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="D21" s="2" t="s">
         <v>23</v>
@@ -5570,13 +5624,13 @@
     </row>
     <row r="22" s="2" customFormat="1" ht="11" customHeight="1" spans="1:11">
       <c r="A22" s="2" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="B22" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C22" s="2" t="s">
         <v>110</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>106</v>
       </c>
       <c r="D22" s="2" t="s">
         <v>23</v>
@@ -5587,13 +5641,13 @@
     </row>
     <row r="23" s="2" customFormat="1" ht="11" customHeight="1" spans="1:4">
       <c r="A23" s="8" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="B23" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C23" s="2" t="s">
         <v>110</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>106</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>28</v>
@@ -5610,7 +5664,7 @@
   <sheetPr/>
   <dimension ref="A1:M17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C50" sqref="C50"/>
     </sheetView>
   </sheetViews>
@@ -5667,7 +5721,7 @@
         <v>13</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2" t="s">
@@ -5710,10 +5764,10 @@
     </row>
     <row r="4" customFormat="1" customHeight="1" spans="1:13">
       <c r="A4" s="6" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="C4" s="7"/>
       <c r="D4" s="2" t="s">
@@ -5824,7 +5878,7 @@
         <v>29</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" s="2" t="s">
@@ -5842,10 +5896,10 @@
     </row>
     <row r="10" customHeight="1" spans="1:13">
       <c r="A10" s="2" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" s="2" t="s">
@@ -5865,10 +5919,10 @@
     </row>
     <row r="11" customHeight="1" spans="1:13">
       <c r="A11" s="2" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" s="2" t="s">
@@ -5888,10 +5942,10 @@
     </row>
     <row r="12" customHeight="1" spans="1:13">
       <c r="A12" s="2" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" s="2" t="s">
@@ -5909,10 +5963,10 @@
     </row>
     <row r="13" customHeight="1" spans="1:13">
       <c r="A13" s="2" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" s="2" t="s">
@@ -5930,13 +5984,13 @@
     </row>
     <row r="14" s="2" customFormat="1" ht="11" customHeight="1" spans="1:4">
       <c r="A14" s="2" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>15</v>
@@ -5944,13 +5998,13 @@
     </row>
     <row r="15" s="2" customFormat="1" ht="11" customHeight="1" spans="1:11">
       <c r="A15" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>23</v>
@@ -5961,13 +6015,13 @@
     </row>
     <row r="16" s="2" customFormat="1" ht="11" customHeight="1" spans="1:11">
       <c r="A16" s="2" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="B16" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C16" s="2" t="s">
         <v>110</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>106</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>23</v>
@@ -5978,13 +6032,13 @@
     </row>
     <row r="17" s="2" customFormat="1" ht="11" customHeight="1" spans="1:4">
       <c r="A17" s="8" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="B17" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C17" s="2" t="s">
         <v>110</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>106</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>28</v>
